--- a/imuErr.xlsx
+++ b/imuErr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="0" windowWidth="16560" windowHeight="8280"/>
+    <workbookView xWindow="58140" yWindow="0" windowWidth="16560" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,22 +600,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.25997092199999999</v>
+        <v>8.6656973999999998E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>4.5373485483453614E-3</v>
+        <v>1.5124495161151206E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>0.16734513899999998</v>
+        <v>5.5781712999999997E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>2.9207236627575707E-3</v>
+        <v>9.735745542525236E-4</v>
       </c>
       <c r="F7" s="1">
-        <v>7.8434357999999996E-2</v>
+        <v>2.6144786E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>1.3689377937879544E-3</v>
+        <v>4.563125979293182E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -623,22 +623,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.94919676600000003</v>
+        <v>0.31639892200000003</v>
       </c>
       <c r="C8" s="1">
-        <v>9.3116202744600012E-3</v>
+        <v>3.1038734248200004E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>0.51154392299999996</v>
+        <v>0.17051464099999999</v>
       </c>
       <c r="E8" s="1">
-        <v>5.0182458846299996E-3</v>
+        <v>1.67274862821E-3</v>
       </c>
       <c r="F8" s="1">
-        <v>0.85422446399999996</v>
+        <v>0.28474148799999999</v>
       </c>
       <c r="G8" s="1">
-        <v>8.3799419918400009E-3</v>
+        <v>2.7933139972799999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>8.7266462599716474E-2</v>
+        <v>0.17453292519943295</v>
       </c>
     </row>
   </sheetData>
